--- a/trunk/assets/Personal.xlsx
+++ b/trunk/assets/Personal.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
-  <si>
-    <t>32104-RUBIYANTI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+  <si>
+    <t>32103-MOCH.NANANG FAHRURROZI</t>
   </si>
   <si>
     <t>No</t>
@@ -32,142 +32,208 @@
     <t>Waktu</t>
   </si>
   <si>
-    <t>08-10-2012</t>
+    <t>07-09-2012</t>
   </si>
   <si>
     <t>Jam Masuk</t>
   </si>
   <si>
-    <t>06:57:53</t>
+    <t>07:05:36</t>
   </si>
   <si>
     <t>Jam Pulang</t>
   </si>
   <si>
-    <t>16:03:19</t>
-  </si>
-  <si>
-    <t>09-10-2012</t>
-  </si>
-  <si>
-    <t>06:45:23</t>
-  </si>
-  <si>
-    <t>16:00:48</t>
-  </si>
-  <si>
-    <t>10-10-2012</t>
-  </si>
-  <si>
-    <t>06:44:04</t>
-  </si>
-  <si>
-    <t>16:03:35</t>
-  </si>
-  <si>
-    <t>11-10-2012</t>
-  </si>
-  <si>
-    <t>06:52:14</t>
-  </si>
-  <si>
-    <t>12-10-2012</t>
-  </si>
-  <si>
-    <t>06:45:15</t>
-  </si>
-  <si>
-    <t>15:33:19</t>
-  </si>
-  <si>
-    <t>13-10-2012</t>
-  </si>
-  <si>
-    <t>06:48:09</t>
-  </si>
-  <si>
-    <t>12:35:33</t>
-  </si>
-  <si>
-    <t>15-10-2012</t>
-  </si>
-  <si>
-    <t>06:48:51</t>
-  </si>
-  <si>
-    <t>16:05:47</t>
-  </si>
-  <si>
-    <t>16-10-2012</t>
-  </si>
-  <si>
-    <t>06:40:33</t>
-  </si>
-  <si>
-    <t>17-10-2012</t>
-  </si>
-  <si>
-    <t>06:38:11</t>
-  </si>
-  <si>
-    <t>15:25:44</t>
-  </si>
-  <si>
-    <t>18-10-2012</t>
-  </si>
-  <si>
-    <t>06:50:55</t>
-  </si>
-  <si>
-    <t>19-10-2012</t>
-  </si>
-  <si>
-    <t>06:46:22</t>
-  </si>
-  <si>
-    <t>10:53:35</t>
-  </si>
-  <si>
-    <t>20-10-2012</t>
-  </si>
-  <si>
-    <t>11:14:23</t>
-  </si>
-  <si>
-    <t>22-10-2012</t>
-  </si>
-  <si>
-    <t>06:40:54</t>
-  </si>
-  <si>
-    <t>15:16:16</t>
-  </si>
-  <si>
-    <t>23-10-2012</t>
-  </si>
-  <si>
-    <t>06:37:38</t>
-  </si>
-  <si>
-    <t>15:15:43</t>
-  </si>
-  <si>
-    <t>24-10-2012</t>
-  </si>
-  <si>
-    <t>06:47:39</t>
-  </si>
-  <si>
-    <t>15:18:08</t>
-  </si>
-  <si>
-    <t>25-10-2012</t>
-  </si>
-  <si>
-    <t>06:44:00</t>
-  </si>
-  <si>
-    <t>15:01:22</t>
+    <t>15:15:08</t>
+  </si>
+  <si>
+    <t>08-09-2012</t>
+  </si>
+  <si>
+    <t>07:05:13</t>
+  </si>
+  <si>
+    <t>12:30:40</t>
+  </si>
+  <si>
+    <t>13:08:34</t>
+  </si>
+  <si>
+    <t>10-09-2012</t>
+  </si>
+  <si>
+    <t>06:59:42</t>
+  </si>
+  <si>
+    <t>15:47:01</t>
+  </si>
+  <si>
+    <t>15:47:24</t>
+  </si>
+  <si>
+    <t>15:57:04</t>
+  </si>
+  <si>
+    <t>11-09-2012</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>15:27:35</t>
+  </si>
+  <si>
+    <t>12-09-2012</t>
+  </si>
+  <si>
+    <t>07:02:33</t>
+  </si>
+  <si>
+    <t>16:49:51</t>
+  </si>
+  <si>
+    <t>13-09-2012</t>
+  </si>
+  <si>
+    <t>07:10:06</t>
+  </si>
+  <si>
+    <t>15:34:32</t>
+  </si>
+  <si>
+    <t>14-09-2012</t>
+  </si>
+  <si>
+    <t>07:09:12</t>
+  </si>
+  <si>
+    <t>16:03:22</t>
+  </si>
+  <si>
+    <t>16:19:41</t>
+  </si>
+  <si>
+    <t>15-09-2012</t>
+  </si>
+  <si>
+    <t>06:53:22</t>
+  </si>
+  <si>
+    <t>13:33:17</t>
+  </si>
+  <si>
+    <t>17-09-2012</t>
+  </si>
+  <si>
+    <t>10:10:47</t>
+  </si>
+  <si>
+    <t>15:22:59</t>
+  </si>
+  <si>
+    <t>18-09-2012</t>
+  </si>
+  <si>
+    <t>07:13:32</t>
+  </si>
+  <si>
+    <t>15:17:24</t>
+  </si>
+  <si>
+    <t>15:21:15</t>
+  </si>
+  <si>
+    <t>19-09-2012</t>
+  </si>
+  <si>
+    <t>07:10:52</t>
+  </si>
+  <si>
+    <t>18:29:08</t>
+  </si>
+  <si>
+    <t>20-09-2012</t>
+  </si>
+  <si>
+    <t>07:22:31</t>
+  </si>
+  <si>
+    <t>17:31:42</t>
+  </si>
+  <si>
+    <t>21-09-2012</t>
+  </si>
+  <si>
+    <t>07:09:03</t>
+  </si>
+  <si>
+    <t>16:22:48</t>
+  </si>
+  <si>
+    <t>22-09-2012</t>
+  </si>
+  <si>
+    <t>07:04:49</t>
+  </si>
+  <si>
+    <t>13:59:26</t>
+  </si>
+  <si>
+    <t>24-09-2012</t>
+  </si>
+  <si>
+    <t>07:01:50</t>
+  </si>
+  <si>
+    <t>18:51:32</t>
+  </si>
+  <si>
+    <t>25-09-2012</t>
+  </si>
+  <si>
+    <t>07:05:47</t>
+  </si>
+  <si>
+    <t>20:31:02</t>
+  </si>
+  <si>
+    <t>26-09-2012</t>
+  </si>
+  <si>
+    <t>07:17:23</t>
+  </si>
+  <si>
+    <t>16:23:23</t>
+  </si>
+  <si>
+    <t>27-09-2012</t>
+  </si>
+  <si>
+    <t>06:58:30</t>
+  </si>
+  <si>
+    <t>15:44:54</t>
+  </si>
+  <si>
+    <t>28-09-2012</t>
+  </si>
+  <si>
+    <t>07:13:34</t>
+  </si>
+  <si>
+    <t>15:31:05</t>
+  </si>
+  <si>
+    <t>29-09-2012</t>
+  </si>
+  <si>
+    <t>06:45:08</t>
+  </si>
+  <si>
+    <t>12:02:25</t>
+  </si>
+  <si>
+    <t>12:06:19</t>
   </si>
 </sst>
 </file>
@@ -533,10 +599,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D30" sqref="D30:D30"/>
+      <selection activeCell="D48" sqref="D48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,13 +693,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -641,10 +707,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -655,13 +721,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -669,13 +735,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -683,13 +749,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -697,13 +763,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -711,13 +777,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -725,13 +791,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -739,13 +805,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -753,13 +819,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -767,13 +833,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -781,13 +847,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -795,13 +861,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -809,13 +875,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -823,13 +889,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -837,13 +903,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -851,13 +917,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -865,13 +931,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -879,13 +945,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -893,13 +959,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -907,13 +973,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -921,13 +987,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -935,13 +1001,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -949,13 +1015,265 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/assets/Personal.xlsx
+++ b/trunk/assets/Personal.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>32103-MOCH.NANANG FAHRURROZI</t>
   </si>
@@ -32,18 +32,87 @@
     <t>Waktu</t>
   </si>
   <si>
+    <t>01-09-2012</t>
+  </si>
+  <si>
+    <t>Jam Masuk</t>
+  </si>
+  <si>
+    <t>09:38:47</t>
+  </si>
+  <si>
+    <t>10:10:58</t>
+  </si>
+  <si>
+    <t>10:11:39</t>
+  </si>
+  <si>
+    <t>10:58:53</t>
+  </si>
+  <si>
+    <t>11:00:06</t>
+  </si>
+  <si>
+    <t>11:08:11</t>
+  </si>
+  <si>
+    <t>13:13:14</t>
+  </si>
+  <si>
+    <t>03-09-2012</t>
+  </si>
+  <si>
+    <t>Mulai Lembur</t>
+  </si>
+  <si>
+    <t>06:49:28</t>
+  </si>
+  <si>
+    <t>Jam Pulang</t>
+  </si>
+  <si>
+    <t>16:09:12</t>
+  </si>
+  <si>
+    <t>04-09-2012</t>
+  </si>
+  <si>
+    <t>06:55:25</t>
+  </si>
+  <si>
+    <t>16:36:46</t>
+  </si>
+  <si>
+    <t>05-09-2012</t>
+  </si>
+  <si>
+    <t>07:14:42</t>
+  </si>
+  <si>
+    <t>15:17:00</t>
+  </si>
+  <si>
+    <t>15:17:11</t>
+  </si>
+  <si>
+    <t>06-09-2012</t>
+  </si>
+  <si>
+    <t>06:58:04</t>
+  </si>
+  <si>
+    <t>14:07:53</t>
+  </si>
+  <si>
+    <t>15:24:59</t>
+  </si>
+  <si>
     <t>07-09-2012</t>
   </si>
   <si>
-    <t>Jam Masuk</t>
-  </si>
-  <si>
     <t>07:05:36</t>
   </si>
   <si>
-    <t>Jam Pulang</t>
-  </si>
-  <si>
     <t>15:15:08</t>
   </si>
   <si>
@@ -90,150 +159,6 @@
   </si>
   <si>
     <t>16:49:51</t>
-  </si>
-  <si>
-    <t>13-09-2012</t>
-  </si>
-  <si>
-    <t>07:10:06</t>
-  </si>
-  <si>
-    <t>15:34:32</t>
-  </si>
-  <si>
-    <t>14-09-2012</t>
-  </si>
-  <si>
-    <t>07:09:12</t>
-  </si>
-  <si>
-    <t>16:03:22</t>
-  </si>
-  <si>
-    <t>16:19:41</t>
-  </si>
-  <si>
-    <t>15-09-2012</t>
-  </si>
-  <si>
-    <t>06:53:22</t>
-  </si>
-  <si>
-    <t>13:33:17</t>
-  </si>
-  <si>
-    <t>17-09-2012</t>
-  </si>
-  <si>
-    <t>10:10:47</t>
-  </si>
-  <si>
-    <t>15:22:59</t>
-  </si>
-  <si>
-    <t>18-09-2012</t>
-  </si>
-  <si>
-    <t>07:13:32</t>
-  </si>
-  <si>
-    <t>15:17:24</t>
-  </si>
-  <si>
-    <t>15:21:15</t>
-  </si>
-  <si>
-    <t>19-09-2012</t>
-  </si>
-  <si>
-    <t>07:10:52</t>
-  </si>
-  <si>
-    <t>18:29:08</t>
-  </si>
-  <si>
-    <t>20-09-2012</t>
-  </si>
-  <si>
-    <t>07:22:31</t>
-  </si>
-  <si>
-    <t>17:31:42</t>
-  </si>
-  <si>
-    <t>21-09-2012</t>
-  </si>
-  <si>
-    <t>07:09:03</t>
-  </si>
-  <si>
-    <t>16:22:48</t>
-  </si>
-  <si>
-    <t>22-09-2012</t>
-  </si>
-  <si>
-    <t>07:04:49</t>
-  </si>
-  <si>
-    <t>13:59:26</t>
-  </si>
-  <si>
-    <t>24-09-2012</t>
-  </si>
-  <si>
-    <t>07:01:50</t>
-  </si>
-  <si>
-    <t>18:51:32</t>
-  </si>
-  <si>
-    <t>25-09-2012</t>
-  </si>
-  <si>
-    <t>07:05:47</t>
-  </si>
-  <si>
-    <t>20:31:02</t>
-  </si>
-  <si>
-    <t>26-09-2012</t>
-  </si>
-  <si>
-    <t>07:17:23</t>
-  </si>
-  <si>
-    <t>16:23:23</t>
-  </si>
-  <si>
-    <t>27-09-2012</t>
-  </si>
-  <si>
-    <t>06:58:30</t>
-  </si>
-  <si>
-    <t>15:44:54</t>
-  </si>
-  <si>
-    <t>28-09-2012</t>
-  </si>
-  <si>
-    <t>07:13:34</t>
-  </si>
-  <si>
-    <t>15:31:05</t>
-  </si>
-  <si>
-    <t>29-09-2012</t>
-  </si>
-  <si>
-    <t>06:45:08</t>
-  </si>
-  <si>
-    <t>12:02:25</t>
-  </si>
-  <si>
-    <t>12:06:19</t>
   </si>
 </sst>
 </file>
@@ -599,10 +524,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D48" sqref="D48:D48"/>
+      <selection activeCell="D32" sqref="D32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -654,10 +579,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -665,13 +590,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -679,13 +604,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -693,13 +618,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -707,13 +632,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -721,13 +646,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -738,10 +663,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -752,7 +677,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
@@ -780,7 +705,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -808,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
@@ -819,13 +744,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -833,10 +758,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
@@ -847,13 +772,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -861,13 +786,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -875,10 +800,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>31</v>
@@ -889,13 +814,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -903,10 +828,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>34</v>
@@ -917,13 +842,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -931,13 +856,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -945,13 +870,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -959,13 +884,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -973,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -987,13 +912,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1004,10 +929,10 @@
         <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1015,13 +940,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1032,10 +957,10 @@
         <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1043,237 +968,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
